--- a/data/trans_orig/P64D1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64D1_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>95237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78456</v>
+        <v>78593</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114561</v>
+        <v>114088</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.260437499373049</v>
+        <v>0.2604374993730491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2145464123428507</v>
+        <v>0.2149218185016759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3132801751214284</v>
+        <v>0.3119868490971269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -762,19 +762,19 @@
         <v>102226</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88618</v>
+        <v>87835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116432</v>
+        <v>116265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3696804109704566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3204710889097268</v>
+        <v>0.3176369514936325</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4210533528977588</v>
+        <v>0.4204512785850572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>260</v>
@@ -783,19 +783,19 @@
         <v>197463</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>173633</v>
+        <v>176918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220540</v>
+        <v>221879</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3074760414673055</v>
+        <v>0.3074760414673054</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2703692056635213</v>
+        <v>0.2754843318963276</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.34341037428578</v>
+        <v>0.3454947035796175</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>270444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251120</v>
+        <v>251593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287225</v>
+        <v>287088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7395625006269509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6867198248785714</v>
+        <v>0.688013150902873</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7854535876571487</v>
+        <v>0.7850781814983239</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -833,19 +833,19 @@
         <v>174299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>160093</v>
+        <v>160260</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187907</v>
+        <v>188690</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6303195890295432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5789466471022412</v>
+        <v>0.5795487214149428</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.679528911090273</v>
+        <v>0.6823630485063678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>482</v>
@@ -854,19 +854,19 @@
         <v>444743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>421666</v>
+        <v>420327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>468573</v>
+        <v>465288</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6925239585326946</v>
+        <v>0.6925239585326944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.65658962571422</v>
+        <v>0.6545052964203822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7296307943364787</v>
+        <v>0.7245156681036725</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>157240</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>134837</v>
+        <v>131716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183321</v>
+        <v>181915</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2532632096007945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2171793003108027</v>
+        <v>0.2121524651122103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2952710642480956</v>
+        <v>0.2930070407872565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>249</v>
@@ -979,19 +979,19 @@
         <v>184107</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165251</v>
+        <v>164918</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>204337</v>
+        <v>202051</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4171738935216152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3744474824905038</v>
+        <v>0.3736932456261693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4630152929408179</v>
+        <v>0.4578341319857042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>381</v>
@@ -1000,19 +1000,19 @@
         <v>341346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>308315</v>
+        <v>311918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>374377</v>
+        <v>377028</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3213658464215918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2902679256769974</v>
+        <v>0.2936601560760906</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3524630594077136</v>
+        <v>0.3549590222287263</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>463616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>437535</v>
+        <v>438941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486019</v>
+        <v>489140</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7467367903992054</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7047289357519049</v>
+        <v>0.7069929592127436</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7828206996891975</v>
+        <v>0.7878475348877898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -1050,19 +1050,19 @@
         <v>257212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236982</v>
+        <v>239268</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276068</v>
+        <v>276401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5828261064783848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5369847070591824</v>
+        <v>0.5421658680142959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6255525175094961</v>
+        <v>0.6263067543738309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>723</v>
@@ -1071,19 +1071,19 @@
         <v>720828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>687797</v>
+        <v>685146</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>753859</v>
+        <v>750256</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6786341535784082</v>
+        <v>0.6786341535784083</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6475369405922863</v>
+        <v>0.6450409777712736</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7097320743230026</v>
+        <v>0.7063398439239096</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>70857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54706</v>
+        <v>52903</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91276</v>
+        <v>92688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1718209996775731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1326545552483517</v>
+        <v>0.1282838252470203</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2213345604861525</v>
+        <v>0.224758599912882</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -1196,19 +1196,19 @@
         <v>93468</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79830</v>
+        <v>78860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108988</v>
+        <v>107834</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2814287293858317</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2403651613742608</v>
+        <v>0.2374427518691918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3281587656585768</v>
+        <v>0.3246843633975611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -1217,19 +1217,19 @@
         <v>164326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141657</v>
+        <v>140849</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191698</v>
+        <v>187626</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2207160991901703</v>
+        <v>0.2207160991901704</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1902687918248347</v>
+        <v>0.1891827632061873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2574815322317867</v>
+        <v>0.2520124253805866</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>341534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>321115</v>
+        <v>319703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>357685</v>
+        <v>359488</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.828179000322427</v>
+        <v>0.8281790003224269</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7786654395138475</v>
+        <v>0.7752414000871181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8673454447516479</v>
+        <v>0.8717161747529797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>297</v>
@@ -1267,19 +1267,19 @@
         <v>238653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223133</v>
+        <v>224287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252291</v>
+        <v>253261</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7185712706141683</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.671841234341423</v>
+        <v>0.6753156366024391</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.759634838625739</v>
+        <v>0.7625572481308082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>564</v>
@@ -1288,19 +1288,19 @@
         <v>580186</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>552814</v>
+        <v>556886</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>602855</v>
+        <v>603663</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7792839008098296</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7425184677682133</v>
+        <v>0.7479875746194133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8097312081751653</v>
+        <v>0.8108172367938127</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>142418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120919</v>
+        <v>122742</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165170</v>
+        <v>165910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2796540092945082</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2374385833127576</v>
+        <v>0.2410187534434595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.324330016910739</v>
+        <v>0.3257835846298325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -1413,19 +1413,19 @@
         <v>179527</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160702</v>
+        <v>162450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197201</v>
+        <v>199944</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4065239788621399</v>
+        <v>0.40652397886214</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3638958944198781</v>
+        <v>0.367854134417344</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4465466836488054</v>
+        <v>0.4527585089335429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>376</v>
@@ -1434,19 +1434,19 @@
         <v>321944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>294007</v>
+        <v>294356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349408</v>
+        <v>352810</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3385758739996183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.309194817831799</v>
+        <v>0.309561860005826</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3674579557093024</v>
+        <v>0.3710360349873171</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>366847</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344095</v>
+        <v>343355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388346</v>
+        <v>386523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7203459907054918</v>
+        <v>0.7203459907054919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.675669983089261</v>
+        <v>0.6742164153701674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7625614166872423</v>
+        <v>0.7589812465565405</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>346</v>
@@ -1484,19 +1484,19 @@
         <v>262087</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>244413</v>
+        <v>241670</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>280912</v>
+        <v>279164</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.59347602113786</v>
+        <v>0.5934760211378601</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.553453316351195</v>
+        <v>0.5472414910664571</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6361041055801223</v>
+        <v>0.6321458655826558</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>682</v>
@@ -1505,19 +1505,19 @@
         <v>628934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>601470</v>
+        <v>598068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>656871</v>
+        <v>656522</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6614241260003817</v>
+        <v>0.6614241260003816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6325420442906979</v>
+        <v>0.6289639650126831</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6908051821682016</v>
+        <v>0.690438139994174</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>465752</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>427467</v>
+        <v>424618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>511117</v>
+        <v>508127</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2440803485889213</v>
+        <v>0.2440803485889212</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.224016769771524</v>
+        <v>0.2225238605193694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2678539731908481</v>
+        <v>0.2662870415472764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>776</v>
@@ -1630,19 +1630,19 @@
         <v>559328</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>526093</v>
+        <v>521908</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>592676</v>
+        <v>590484</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3749903532407272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3527085089881352</v>
+        <v>0.3499028627942268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3973483701936252</v>
+        <v>0.3958787381713141</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1189</v>
@@ -1651,19 +1651,19 @@
         <v>1025080</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>977107</v>
+        <v>971629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1082323</v>
+        <v>1080940</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3015143870058419</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2874038432269637</v>
+        <v>0.2857924932545799</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3183516809033611</v>
+        <v>0.3179448902116055</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1442440</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1397075</v>
+        <v>1400065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1480725</v>
+        <v>1483574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7559196514110788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7321460268091519</v>
+        <v>0.7337129584527237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.775983230228476</v>
+        <v>0.7774761394806304</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1220</v>
@@ -1701,19 +1701,19 @@
         <v>932251</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>898903</v>
+        <v>901095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>965486</v>
+        <v>969671</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.625009646759273</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6026516298063749</v>
+        <v>0.6041212618286859</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6472914910118648</v>
+        <v>0.6500971372057732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2451</v>
@@ -1722,19 +1722,19 @@
         <v>2374691</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2317448</v>
+        <v>2318831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2422664</v>
+        <v>2428142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6984856129941581</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.681648319096639</v>
+        <v>0.6820551097883945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7125961567730363</v>
+        <v>0.71420750674542</v>
       </c>
     </row>
     <row r="18">
